--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H2">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I2">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J2">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N2">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q2">
-        <v>268.5811277822982</v>
+        <v>616.1858408647821</v>
       </c>
       <c r="R2">
-        <v>268.5811277822982</v>
+        <v>5545.672567783039</v>
       </c>
       <c r="S2">
-        <v>0.0003255158937485097</v>
+        <v>0.0006730901982101196</v>
       </c>
       <c r="T2">
-        <v>0.0003255158937485097</v>
+        <v>0.0006730901982101198</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H3">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I3">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J3">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N3">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q3">
-        <v>863.1686666259536</v>
+        <v>1654.586247797554</v>
       </c>
       <c r="R3">
-        <v>863.1686666259536</v>
+        <v>14891.27623017799</v>
       </c>
       <c r="S3">
-        <v>0.001046146176734371</v>
+        <v>0.001807386200115859</v>
       </c>
       <c r="T3">
-        <v>0.001046146176734371</v>
+        <v>0.001807386200115859</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H4">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I4">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J4">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N4">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q4">
-        <v>1145.956031637766</v>
+        <v>2366.745344471459</v>
       </c>
       <c r="R4">
-        <v>1145.956031637766</v>
+        <v>21300.70810024313</v>
       </c>
       <c r="S4">
-        <v>0.001388879795520944</v>
+        <v>0.002585312721219689</v>
       </c>
       <c r="T4">
-        <v>0.001388879795520944</v>
+        <v>0.00258531272121969</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H5">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I5">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J5">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N5">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q5">
-        <v>298.4654425870582</v>
+        <v>749.1559613748661</v>
       </c>
       <c r="R5">
-        <v>298.4654425870582</v>
+        <v>6742.403652373795</v>
       </c>
       <c r="S5">
-        <v>0.0003617351900298862</v>
+        <v>0.0008183400219395103</v>
       </c>
       <c r="T5">
-        <v>0.0003617351900298862</v>
+        <v>0.0008183400219395103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H6">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I6">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J6">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N6">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q6">
-        <v>83105.17742522313</v>
+        <v>100633.362319716</v>
       </c>
       <c r="R6">
-        <v>83105.17742522313</v>
+        <v>905700.2608774444</v>
       </c>
       <c r="S6">
-        <v>0.1007221033289702</v>
+        <v>0.10992678717717</v>
       </c>
       <c r="T6">
-        <v>0.1007221033289702</v>
+        <v>0.1099267871771701</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H7">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I7">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J7">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N7">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q7">
-        <v>267084.2355163087</v>
+        <v>270221.3623249572</v>
       </c>
       <c r="R7">
-        <v>267084.2355163087</v>
+        <v>2431992.260924615</v>
       </c>
       <c r="S7">
-        <v>0.3237016850294081</v>
+        <v>0.2951761275018118</v>
       </c>
       <c r="T7">
-        <v>0.3237016850294081</v>
+        <v>0.2951761275018118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H8">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I8">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J8">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N8">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q8">
-        <v>354585.1494374353</v>
+        <v>386528.748266001</v>
       </c>
       <c r="R8">
-        <v>354585.1494374353</v>
+        <v>3478758.734394009</v>
       </c>
       <c r="S8">
-        <v>0.429751348436638</v>
+        <v>0.4222244240781968</v>
       </c>
       <c r="T8">
-        <v>0.429751348436638</v>
+        <v>0.4222244240781969</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H9">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I9">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J9">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N9">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q9">
-        <v>92352.07166752397</v>
+        <v>122349.5872433654</v>
       </c>
       <c r="R9">
-        <v>92352.07166752397</v>
+        <v>1101146.285190288</v>
       </c>
       <c r="S9">
-        <v>0.1119291865240348</v>
+        <v>0.1336484911970491</v>
       </c>
       <c r="T9">
-        <v>0.1119291865240348</v>
+        <v>0.1336484911970491</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H10">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I10">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J10">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N10">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q10">
-        <v>51.48456485348433</v>
+        <v>65.43032952860443</v>
       </c>
       <c r="R10">
-        <v>51.48456485348433</v>
+        <v>588.8729657574399</v>
       </c>
       <c r="S10">
-        <v>6.239844281285212E-05</v>
+        <v>7.147277744901346E-05</v>
       </c>
       <c r="T10">
-        <v>6.239844281285212E-05</v>
+        <v>7.147277744901349E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H11">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I11">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J11">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N11">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q11">
-        <v>165.4616002373063</v>
+        <v>175.6939485577178</v>
       </c>
       <c r="R11">
-        <v>165.4616002373063</v>
+        <v>1581.24553701946</v>
       </c>
       <c r="S11">
-        <v>0.0002005367284255452</v>
+        <v>0.0001919191692121075</v>
       </c>
       <c r="T11">
-        <v>0.0002005367284255452</v>
+        <v>0.0001919191692121075</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H12">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I12">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J12">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N12">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q12">
-        <v>219.6693718477439</v>
+        <v>251.3152973163502</v>
       </c>
       <c r="R12">
-        <v>219.6693718477439</v>
+        <v>2261.837675847152</v>
       </c>
       <c r="S12">
-        <v>0.0002662356528793492</v>
+        <v>0.0002745240998178306</v>
       </c>
       <c r="T12">
-        <v>0.0002662356528793492</v>
+        <v>0.0002745240998178306</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H13">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I13">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J13">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N13">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O13">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P13">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q13">
-        <v>57.21311680488846</v>
+        <v>79.54989902442844</v>
       </c>
       <c r="R13">
-        <v>57.21311680488846</v>
+        <v>715.949091219856</v>
       </c>
       <c r="S13">
-        <v>6.934135322410623E-05</v>
+        <v>8.689627990607702E-05</v>
       </c>
       <c r="T13">
-        <v>6.934135322410623E-05</v>
+        <v>8.689627990607702E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H14">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I14">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J14">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N14">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O14">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P14">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q14">
-        <v>2595.671414140409</v>
+        <v>3404.993836883768</v>
       </c>
       <c r="R14">
-        <v>2595.671414140409</v>
+        <v>30644.94453195392</v>
       </c>
       <c r="S14">
-        <v>0.003145910910524747</v>
+        <v>0.003719442779398864</v>
       </c>
       <c r="T14">
-        <v>0.003145910910524747</v>
+        <v>0.003719442779398865</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H15">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I15">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J15">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N15">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P15">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q15">
-        <v>8341.994286950596</v>
+        <v>9143.111708695727</v>
       </c>
       <c r="R15">
-        <v>8341.994286950596</v>
+        <v>82288.00537826154</v>
       </c>
       <c r="S15">
-        <v>0.01011035938520122</v>
+        <v>0.009987472064639276</v>
       </c>
       <c r="T15">
-        <v>0.01011035938520122</v>
+        <v>0.009987472064639276</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H16">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I16">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J16">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N16">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O16">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P16">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q16">
-        <v>11074.96024662972</v>
+        <v>13078.44610659775</v>
       </c>
       <c r="R16">
-        <v>11074.96024662972</v>
+        <v>117706.0149593797</v>
       </c>
       <c r="S16">
-        <v>0.0134226690187742</v>
+        <v>0.01428623200723952</v>
       </c>
       <c r="T16">
-        <v>0.0134226690187742</v>
+        <v>0.01428623200723952</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.2745468612994</v>
+        <v>106.9830526666667</v>
       </c>
       <c r="H17">
-        <v>98.2745468612994</v>
+        <v>320.949158</v>
       </c>
       <c r="I17">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="J17">
-        <v>0.03017488744757338</v>
+        <v>0.03251522857790212</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N17">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O17">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P17">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q17">
-        <v>2884.484936931048</v>
+        <v>4139.7761230056</v>
       </c>
       <c r="R17">
-        <v>2884.484936931048</v>
+        <v>37257.98510705041</v>
       </c>
       <c r="S17">
-        <v>0.003495948133073215</v>
+        <v>0.004522081726624463</v>
       </c>
       <c r="T17">
-        <v>0.003495948133073215</v>
+        <v>0.004522081726624463</v>
       </c>
     </row>
   </sheetData>
